--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2058.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2058.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.16590432317327</v>
+        <v>0.8826526999473572</v>
       </c>
       <c r="B1">
-        <v>2.739046441488202</v>
+        <v>2.814315795898438</v>
       </c>
       <c r="C1">
-        <v>4.973624731399955</v>
+        <v>4.651193141937256</v>
       </c>
       <c r="D1">
-        <v>2.735506661837183</v>
+        <v>2.365373849868774</v>
       </c>
       <c r="E1">
-        <v>1.206729544725623</v>
+        <v>1.068786978721619</v>
       </c>
     </row>
   </sheetData>
